--- a/卒業制作kur.xlsx
+++ b/卒業制作kur.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE3A13\卒業制作\Labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FAE8F7-EEC0-4251-9054-C280E8EEED2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D8544A-D13C-4E6A-A5F1-29525F64DC20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8244" xr2:uid="{243CCB41-0353-4C68-8296-4CB6A554B702}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8240" xr2:uid="{243CCB41-0353-4C68-8296-4CB6A554B702}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="240">
   <si>
     <t>警察24時</t>
     <rPh sb="0" eb="2">
@@ -302,19 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾を飛ばす処理</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銃を撃つ処理</t>
     <rPh sb="0" eb="1">
       <t>ジュウ</t>
@@ -1428,10 +1414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラマー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黒須</t>
     <rPh sb="0" eb="2">
       <t>クロス</t>
@@ -1930,16 +1912,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a版個人タイム</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>総計</t>
     <rPh sb="0" eb="2">
       <t>ソウケイ</t>
@@ -1982,16 +1954,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>β版個人タイム</t>
-    <rPh sb="0" eb="2">
-      <t>ベータバン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2628,82 +2590,148 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2724,6 +2752,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2751,127 +2818,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3189,48 +3151,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E4AAE-54DD-4F16-91FF-456D394778FB}">
-  <dimension ref="A1:V243"/>
+  <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="37.5" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="12.19921875" customWidth="1"/>
-    <col min="14" max="14" width="16.296875" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="18" width="10.59765625" customWidth="1"/>
+    <col min="16" max="18" width="10.58203125" customWidth="1"/>
     <col min="19" max="19" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B2" s="62" t="s">
+    <row r="1" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="64"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="65"/>
+    <row r="3" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="90"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3238,17 +3200,17 @@
       <c r="P4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="127" t="s">
+    <row r="5" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3267,35 +3229,35 @@
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="128"/>
-      <c r="C6" s="119"/>
+    <row r="6" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="102"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="18"/>
-      <c r="F6" s="128"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="51">
-        <f>SUM($O25:P$29)</f>
-        <v>526</v>
+        <f>SUM($O24:P$28)</f>
+        <v>522</v>
       </c>
       <c r="P6">
-        <f>SUMIF($K$17:$K$241,$D$5,$L$17:$L$241)</f>
+        <f>SUMIF($K$17:$K$240,$D$5,$L$17:$L$240)</f>
         <v>197</v>
       </c>
       <c r="Q6">
-        <f>SUMIF($K$17:$K$241,$D$8,$L$17:$L$241)+SUMIF($K$17:$K$241,$D$9,$L$17:$L$241)+SUMIF($K$17:$K$241,$D$10,$L$17:$L$241)+SUMIF($K$17:$K$241,$D$11,$L$17:$L$241)</f>
+        <f>SUMIF($K$17:$K$240,$D$8,$L$17:$L$240)+SUMIF($K$17:$K$240,$D$9,$L$17:$L$240)+SUMIF($K$17:$K$240,$D$10,$L$17:$L$240)+SUMIF($K$17:$K$240,$D$11,$L$17:$L$240)</f>
         <v>334</v>
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="128"/>
-      <c r="C7" s="120"/>
+    <row r="7" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="102"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="12"/>
-      <c r="F7" s="129"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3303,9 +3265,9 @@
       <c r="P7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="128"/>
-      <c r="C8" s="121" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="102"/>
+      <c r="C8" s="95" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -3315,35 +3277,35 @@
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="128"/>
-      <c r="C9" s="122"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1"/>
       <c r="O9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="128"/>
-      <c r="C10" s="122"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="102"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1"/>
       <c r="O10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="128"/>
-      <c r="C11" s="123"/>
+    <row r="11" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="102"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
@@ -3351,9 +3313,9 @@
       <c r="P11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="128"/>
-      <c r="C12" s="124" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="102"/>
+      <c r="C12" s="98" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -3361,32 +3323,32 @@
       </c>
       <c r="J12" s="1"/>
       <c r="O12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="128"/>
-      <c r="C13" s="125"/>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="102"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1"/>
       <c r="N13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="129"/>
-      <c r="C14" s="126"/>
+    <row r="14" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="103"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
@@ -3398,14 +3360,14 @@
       <c r="P14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="J15" s="1"/>
       <c r="P15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J16" s="4" t="s">
         <v>6</v>
       </c>
@@ -3420,19 +3382,19 @@
         <v>720</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="103" t="s">
+    <row r="17" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="84" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
       <c r="J17" s="5" t="s">
         <v>7</v>
       </c>
@@ -3447,17 +3409,17 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="84" t="s">
+    <row r="18" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="16"/>
@@ -3481,19 +3443,19 @@
       <c r="K19" s="21"/>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="130" t="s">
+    <row r="20" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="83" t="s">
+      <c r="C20" s="109"/>
+      <c r="D20" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="5" t="s">
         <v>7</v>
       </c>
@@ -3504,29 +3466,29 @@
         <v>29</v>
       </c>
       <c r="N20">
-        <f>(500/3)-(O29/3)</f>
+        <f>(500/3)-(O28/3)</f>
         <v>124.66666666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="88" t="s">
+    <row r="22" spans="2:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="86" t="s">
+      <c r="C22" s="111"/>
+      <c r="D22" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
       <c r="J22" s="5" t="s">
         <v>7</v>
       </c>
@@ -3537,17 +3499,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75" t="s">
+    <row r="23" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3558,194 +3520,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
+    <row r="24" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
       <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="O24">
+        <f>SUMIF($K$22:$K$249,$D$12,$L$22:$L$249)</f>
+        <v>133</v>
       </c>
       <c r="Q24" t="s">
-        <v>231</v>
+        <v>178</v>
+      </c>
+      <c r="R24">
+        <f>SUMIF($K$22:$K$111,$D$12,$L$22:$L$111)</f>
+        <v>82</v>
       </c>
       <c r="T24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
+        <v>178</v>
+      </c>
+      <c r="U24">
+        <f>SUMIF($K$149:$K$240,$D$12,$L$149:$L$240)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O25">
-        <f>SUMIF($K$22:$K$250,$D$12,$L$22:$L$250)</f>
-        <v>133</v>
+        <f>SUMIF($K$22:$K$240,$D$13,$L$22:$L$240)</f>
+        <v>131</v>
       </c>
       <c r="Q25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R25">
-        <f>SUMIF($K$22:$K$112,$D$12,$L$22:$L$112)</f>
-        <v>82</v>
+        <f>SUMIF($K$22:$K$111,$D$13,$L$22:$L$111)</f>
+        <v>78</v>
       </c>
       <c r="T25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U25">
-        <f>SUMIF($K$150:$K$241,$D$12,$L$150:$L$241)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75" t="s">
+        <f>SUMIF($K$149:$K$240,$D$13,$L$149:$L$240)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O26">
-        <f>SUMIF($K$22:$K$241,$D$13,$L$22:$L$241)</f>
-        <v>135</v>
+        <f>SUMIF($K$22:$K$249,$D$14,$L$22:$L$249)</f>
+        <v>132</v>
       </c>
       <c r="Q26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R26">
-        <f>SUMIF($K$22:$K$112,$D$13,$L$22:$L$112)</f>
-        <v>82</v>
+        <f>SUMIF($K$22:$K$111,$D$14,$L$22:$L$111)</f>
+        <v>67</v>
       </c>
       <c r="T26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U26">
-        <f>SUMIF($K$150:$K$241,$D$13,$L$150:$L$241)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="5" t="s">
-        <v>11</v>
+        <f>SUMIF($K$149:$K$240,$D$14,$L$149:$L$240)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="52" t="s">
+        <v>7</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="5">
-        <v>6</v>
-      </c>
-      <c r="N27" t="s">
-        <v>182</v>
-      </c>
-      <c r="O27">
-        <f>SUMIF($K$22:$K$250,$D$14,$L$22:$L$250)</f>
-        <v>132</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>182</v>
-      </c>
-      <c r="R27">
-        <f>SUMIF($K$22:$K$112,$D$14,$L$22:$L$112)</f>
-        <v>67</v>
-      </c>
-      <c r="T27" t="s">
-        <v>182</v>
-      </c>
-      <c r="U27">
-        <f>SUMIF($K$150:$K$241,$D$14,$L$150:$L$241)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
+      <c r="L27" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28">
+        <f>SUMIF($K$22:$K$236,"プログラマー全員",$L$22:$L$236)</f>
+        <v>126</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>181</v>
+      </c>
+      <c r="R28">
+        <f>SUMIF($K$22:$K$111,"プログラマー全員",$L$22:$L$111)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="52" t="s">
         <v>11</v>
       </c>
@@ -3753,147 +3720,133 @@
         <v>20</v>
       </c>
       <c r="L29" s="47">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>183</v>
-      </c>
-      <c r="O29">
-        <f>SUMIF($K$22:$K$237,"プログラマー全員",$L$22:$L$237)</f>
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="R29">
-        <f>SUMIF($K$22:$K$112,"プログラマー全員",$L$22:$L$112)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="52" t="s">
-        <v>11</v>
+        <f>SUM(R24:R28)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="47">
+      <c r="L30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="49"/>
+    </row>
+    <row r="32" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="F32" s="19"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+    </row>
+    <row r="33" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q30" t="s">
-        <v>232</v>
-      </c>
-      <c r="R30">
-        <f>SUM(R25:R29)</f>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="49"/>
-    </row>
-    <row r="33" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="F33" s="19"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-    </row>
-    <row r="34" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="75" t="s">
+      <c r="K33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75" t="s">
+      <c r="L34" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="L35" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B36" s="112"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="5" t="s">
         <v>7</v>
       </c>
@@ -3904,17 +3857,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="67"/>
+    <row r="37" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
@@ -3922,62 +3875,62 @@
         <v>21</v>
       </c>
       <c r="L37" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B38" s="112"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K38" s="20" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="67"/>
+    <row r="40" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B40" s="112"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="5" t="s">
         <v>7</v>
       </c>
@@ -3988,298 +3941,298 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="90"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="67"/>
+    <row r="41" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="112"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="75" t="s">
+      <c r="L41" s="44">
+        <v>4</v>
+      </c>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B42" s="112"/>
+      <c r="C42" s="113"/>
+      <c r="E42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+    </row>
+    <row r="43" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="82"/>
+      <c r="F43" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="5" t="s">
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B44" s="112"/>
+      <c r="C44" s="113"/>
+      <c r="F44" s="3"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+    </row>
+    <row r="45" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="82"/>
+      <c r="F45" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="112"/>
+      <c r="C46" s="113"/>
+      <c r="F46" s="55"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="N46" s="55"/>
+    </row>
+    <row r="47" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="55"/>
+    </row>
+    <row r="48" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B48" s="112"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="73"/>
+      <c r="F48" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B49" s="112"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="112"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="44">
-        <v>4</v>
-      </c>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="90"/>
-      <c r="C43" s="91"/>
-      <c r="E43" s="7"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-    </row>
-    <row r="44" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="20" t="s">
+      <c r="K50" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="L44" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="F45" s="3"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-    </row>
-    <row r="46" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="90"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B47" s="90"/>
-      <c r="C47" s="91"/>
-      <c r="F47" s="55"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="N47" s="55"/>
-    </row>
-    <row r="48" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="55"/>
-    </row>
-    <row r="49" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="90"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="90"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="L50" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="90"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="132" t="s">
-        <v>225</v>
-      </c>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="5" t="s">
+    <row r="51" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B51" s="112"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="58"/>
+    </row>
+    <row r="52" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="112"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="73"/>
+      <c r="F52" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K52" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L52" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="90"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="58"/>
-    </row>
-    <row r="53" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85"/>
+    <row r="53" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="112"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L53" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="90"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B54" s="112"/>
+      <c r="C54" s="113"/>
+      <c r="F54" s="19"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="50"/>
+    </row>
+    <row r="55" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B55" s="112"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="90"/>
-      <c r="C55" s="91"/>
-      <c r="F55" s="19"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="50"/>
-    </row>
-    <row r="56" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="90"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="75" t="s">
+      <c r="K55" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B56" s="112"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
       <c r="J56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K56" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L56" s="47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="90"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="67"/>
+      <c r="L56" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B57" s="112"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="5" t="s">
         <v>7</v>
       </c>
@@ -4290,17 +4243,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="67"/>
+    <row r="58" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
       <c r="J58" s="5" t="s">
         <v>7</v>
       </c>
@@ -4311,259 +4264,259 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="90"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="75" t="s">
+    <row r="59" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="E59" s="3"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="52"/>
+    </row>
+    <row r="60" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B60" s="112"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
-      <c r="E60" s="3"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="52"/>
-    </row>
-    <row r="61" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="86" t="s">
+      <c r="E60" s="73"/>
+      <c r="F60" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="63"/>
-      <c r="F61" s="75" t="s">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B61" s="112"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K61" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="47">
+      <c r="L61" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="75" t="s">
+    <row r="62" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B62" s="112"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+    </row>
+    <row r="63" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B63" s="112"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="90"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-    </row>
-    <row r="64" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="90"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="86" t="s">
+      <c r="E63" s="73"/>
+      <c r="F63" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="63"/>
-      <c r="F64" s="75" t="s">
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B64" s="112"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K64" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L64" s="47">
+      <c r="L64" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="90"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="75" t="s">
+    <row r="65" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B65" s="112"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="51"/>
+    </row>
+    <row r="66" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="90"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="51"/>
-    </row>
-    <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="90"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="86" t="s">
+      <c r="E66" s="73"/>
+      <c r="F66" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="63"/>
-      <c r="F67" s="83" t="s">
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B67" s="112"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="85"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K67" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L67" s="43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="83" t="s">
+      <c r="L67" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="112"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="68"/>
       <c r="J68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B69" s="112"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K69" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L69" s="45">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="90"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="5" t="s">
+    <row r="70" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B70" s="112"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="51"/>
+    </row>
+    <row r="71" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B71" s="112"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="73"/>
+      <c r="F71" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K69" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="90"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K70" s="20" t="s">
+      <c r="K71" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L70" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="90"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="51"/>
-    </row>
-    <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="90"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="63"/>
-      <c r="F72" s="83" t="s">
+      <c r="L71" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B72" s="112"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="85"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
       <c r="J72" s="5" t="s">
         <v>12</v>
       </c>
@@ -4574,17 +4527,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="90"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="83" t="s">
+    <row r="73" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B73" s="112"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="85"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="5" t="s">
         <v>12</v>
       </c>
@@ -4595,17 +4548,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="90"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="83" t="s">
+    <row r="74" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B74" s="112"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="85"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="71"/>
       <c r="J74" s="5" t="s">
         <v>12</v>
       </c>
@@ -4616,17 +4569,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="90"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="83" t="s">
+    <row r="75" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B75" s="112"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="71"/>
       <c r="J75" s="5" t="s">
         <v>12</v>
       </c>
@@ -4637,17 +4590,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="90"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="83" t="s">
+    <row r="76" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B76" s="112"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="85"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="71"/>
       <c r="J76" s="5" t="s">
         <v>12</v>
       </c>
@@ -4658,17 +4611,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="90"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="83" t="s">
+    <row r="77" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="112"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="85"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="71"/>
       <c r="J77" s="5" t="s">
         <v>12</v>
       </c>
@@ -4679,53 +4632,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="90"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="83" t="s">
+    <row r="78" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B78" s="112"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+    </row>
+    <row r="79" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B79" s="112"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" s="20" t="s">
+      <c r="E79" s="73"/>
+      <c r="F79" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L79" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="90"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="109"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="109"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-    </row>
-    <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="90"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="E80" s="63"/>
-      <c r="F80" s="83" t="s">
+    <row r="80" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B80" s="112"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="85"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="71"/>
       <c r="J80" s="5" t="s">
         <v>11</v>
       </c>
@@ -4736,17 +4689,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="90"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="83" t="s">
+    <row r="81" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B81" s="112"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="85"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="71"/>
       <c r="J81" s="5" t="s">
         <v>11</v>
       </c>
@@ -4757,72 +4710,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="90"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="83" t="s">
+    <row r="82" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B82" s="112"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B83" s="112"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="5" t="s">
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L82" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="90"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="109"/>
-      <c r="H83" s="109"/>
-      <c r="I83" s="109"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-    </row>
-    <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="90"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="67"/>
+      <c r="K83" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B84" s="112"/>
+      <c r="C84" s="113"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
       <c r="J84" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K84" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L84" s="54">
+      <c r="L84" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="90"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="67"/>
+    <row r="85" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B85" s="112"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="5" t="s">
         <v>11</v>
       </c>
@@ -4830,20 +4783,20 @@
         <v>19</v>
       </c>
       <c r="L85" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="90"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B86" s="112"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="68"/>
       <c r="J86" s="5" t="s">
         <v>11</v>
       </c>
@@ -4854,17 +4807,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="90"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="140"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="75" t="s">
+    <row r="87" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B87" s="112"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="5" t="s">
         <v>11</v>
       </c>
@@ -4875,17 +4828,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="90"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="140"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="67"/>
+    <row r="88" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B88" s="112"/>
+      <c r="C88" s="113"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="68"/>
       <c r="J88" s="5" t="s">
         <v>11</v>
       </c>
@@ -4893,55 +4846,55 @@
         <v>19</v>
       </c>
       <c r="L88" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="90"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B89" s="112"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="K89"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B90" s="112"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E90" s="73"/>
+      <c r="F90" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L89" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B90" s="90"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-      <c r="K90"/>
-      <c r="L90"/>
-    </row>
-    <row r="91" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B91" s="90"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" s="63"/>
-      <c r="F91" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="67"/>
+      <c r="L90" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B91" s="112"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="5" t="s">
         <v>7</v>
       </c>
@@ -4949,20 +4902,20 @@
         <v>19</v>
       </c>
       <c r="L91" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="90"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="67"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B92" s="112"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="68"/>
       <c r="J92" s="5" t="s">
         <v>7</v>
       </c>
@@ -4970,20 +4923,20 @@
         <v>19</v>
       </c>
       <c r="L92" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B93" s="90"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="67"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B93" s="112"/>
+      <c r="C93" s="113"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="5" t="s">
         <v>7</v>
       </c>
@@ -4991,643 +4944,643 @@
         <v>19</v>
       </c>
       <c r="L93" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B94" s="90"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K94" s="20" t="s">
+    </row>
+    <row r="94" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B94" s="112"/>
+      <c r="C94" s="113"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B95" s="112"/>
+      <c r="C95" s="113"/>
+      <c r="D95" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" s="73"/>
+      <c r="F95" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L94" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="90"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-      <c r="K95"/>
-      <c r="L95"/>
-    </row>
-    <row r="96" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="90"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="E96" s="63"/>
-      <c r="F96" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="67"/>
+      <c r="L95" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B96" s="112"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K96" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B97" s="112"/>
+      <c r="C97" s="113"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="2:12" s="31" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B98" s="112"/>
+      <c r="C98" s="113"/>
+      <c r="D98" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98" s="139"/>
+      <c r="F98" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="79"/>
+      <c r="H98" s="79"/>
+      <c r="I98" s="80"/>
+      <c r="J98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L96" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="90"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L97" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" s="31" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="90"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-    </row>
-    <row r="99" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B99" s="90"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="141" t="s">
-        <v>168</v>
-      </c>
-      <c r="E99" s="70"/>
-      <c r="F99" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" s="80"/>
-      <c r="H99" s="80"/>
-      <c r="I99" s="81"/>
+      <c r="L98" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B99" s="112"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K99" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L99" s="34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B100" s="90"/>
-      <c r="C100" s="91"/>
+      <c r="L99" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="31" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B100" s="112"/>
+      <c r="C100" s="113"/>
       <c r="D100" s="142"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="67"/>
+      <c r="E100" s="143"/>
+      <c r="F100" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79"/>
+      <c r="I100" s="80"/>
       <c r="J100" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K100" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L100" s="47">
+      <c r="L100" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B101" s="112"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+    </row>
+    <row r="102" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B102" s="112"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="139"/>
+      <c r="F102" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="80"/>
+      <c r="J102" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="2:12" s="31" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B101" s="90"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="143"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="G101" s="80"/>
-      <c r="H101" s="80"/>
-      <c r="I101" s="81"/>
-      <c r="J101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K101" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L101" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" s="31" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B102" s="90"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-    </row>
-    <row r="103" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="90"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="141" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" s="70"/>
-      <c r="F103" s="79" t="s">
+      <c r="K102" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G103" s="80"/>
-      <c r="H103" s="80"/>
-      <c r="I103" s="81"/>
+      <c r="L102" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B103" s="112"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="80"/>
       <c r="J103" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K103" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L103" s="34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B104" s="90"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="142"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="G104" s="80"/>
-      <c r="H104" s="80"/>
-      <c r="I104" s="81"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B104" s="112"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="141"/>
+      <c r="F104" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="80"/>
       <c r="J104" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K104" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L104" s="34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B105" s="90"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="142"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="80"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="81"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B105" s="112"/>
+      <c r="C105" s="113"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="141"/>
+      <c r="F105" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="80"/>
       <c r="J105" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K105" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L105" s="34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B106" s="90"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="142"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="80"/>
-      <c r="H106" s="80"/>
-      <c r="I106" s="81"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B106" s="112"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="141"/>
+      <c r="F106" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="80"/>
       <c r="J106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K106" s="34" t="s">
-        <v>172</v>
+      <c r="K106" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="L106" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B107" s="90"/>
-      <c r="C107" s="91"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B107" s="112"/>
+      <c r="C107" s="113"/>
       <c r="D107" s="142"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="G107" s="80"/>
-      <c r="H107" s="80"/>
-      <c r="I107" s="81"/>
+      <c r="E107" s="143"/>
+      <c r="F107" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="80"/>
       <c r="J107" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L107" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B108" s="112"/>
+      <c r="C108" s="113"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+    </row>
+    <row r="109" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B109" s="112"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="82"/>
+      <c r="F109" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L109" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B110" s="112"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="51"/>
+    </row>
+    <row r="111" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B111" s="114"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="82"/>
+      <c r="F111" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="90"/>
-      <c r="C108" s="91"/>
-      <c r="D108" s="143"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="G108" s="80"/>
-      <c r="H108" s="80"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="5" t="s">
+      <c r="K111" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L111" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="113" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B113" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="111"/>
+      <c r="D113" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="73"/>
+      <c r="F113" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="G113" s="84"/>
+      <c r="H113" s="84"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K108" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L108" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" s="31" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B109" s="90"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-    </row>
-    <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B110" s="90"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="E110" s="69"/>
-      <c r="F110" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L110" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="90"/>
-      <c r="C111" s="91"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="51"/>
-    </row>
-    <row r="112" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B112" s="92"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="69"/>
-      <c r="F112" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G112" s="84"/>
-      <c r="H112" s="84"/>
-      <c r="I112" s="85"/>
-      <c r="J112" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="K112" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L112" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="114" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B114" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="89"/>
-      <c r="D114" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114" s="63"/>
-      <c r="F114" s="76" t="s">
+      <c r="K113" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B114" s="112"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="78"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="85"/>
       <c r="J114" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K114" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L114" s="13">
+      <c r="L114" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B115" s="112"/>
+      <c r="C115" s="113"/>
+    </row>
+    <row r="116" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B116" s="112"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="73"/>
+      <c r="F116" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G116" s="84"/>
+      <c r="H116" s="84"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" s="17">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B115" s="90"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="87"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G115" s="77"/>
-      <c r="H115" s="77"/>
-      <c r="I115" s="78"/>
-      <c r="J115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K115" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L115" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B116" s="90"/>
-      <c r="C116" s="91"/>
-    </row>
-    <row r="117" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B117" s="90"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="86" t="s">
+    <row r="117" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B117" s="112"/>
+      <c r="C117" s="113"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="E117" s="63"/>
-      <c r="F117" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="78"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="85"/>
       <c r="J117" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K117" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L117" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="90"/>
-      <c r="C118" s="91"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="76" t="s">
+      <c r="L117" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B118" s="112"/>
+      <c r="C118" s="113"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="78"/>
+      <c r="G118" s="84"/>
+      <c r="H118" s="84"/>
+      <c r="I118" s="85"/>
       <c r="J118" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K118" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L118" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B119" s="90"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="76" t="s">
+      <c r="L118" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B119" s="112"/>
+      <c r="C119" s="113"/>
+      <c r="L119" s="16"/>
+    </row>
+    <row r="120" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B120" s="112"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G119" s="77"/>
-      <c r="H119" s="77"/>
-      <c r="I119" s="78"/>
-      <c r="J119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K119" s="20" t="s">
+      <c r="E120" s="73"/>
+      <c r="F120" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G120" s="84"/>
+      <c r="H120" s="84"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L119" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B120" s="90"/>
-      <c r="C120" s="91"/>
-      <c r="L120" s="16"/>
-    </row>
-    <row r="121" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B121" s="90"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E121" s="63"/>
-      <c r="F121" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G121" s="77"/>
-      <c r="H121" s="77"/>
-      <c r="I121" s="78"/>
+      <c r="L120" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B121" s="112"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G121" s="84"/>
+      <c r="H121" s="84"/>
+      <c r="I121" s="85"/>
       <c r="J121" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K121" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L121" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="90"/>
-      <c r="C122" s="91"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="77"/>
-      <c r="H122" s="77"/>
-      <c r="I122" s="78"/>
+      <c r="L121" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B122" s="112"/>
+      <c r="C122" s="113"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G122" s="84"/>
+      <c r="H122" s="84"/>
+      <c r="I122" s="85"/>
       <c r="J122" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K122" s="20" t="s">
         <v>14</v>
       </c>
       <c r="L122" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B123" s="90"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B123" s="112"/>
+      <c r="C123" s="113"/>
+      <c r="L123" s="16"/>
+    </row>
+    <row r="124" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B124" s="112"/>
+      <c r="C124" s="113"/>
+      <c r="D124" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="78"/>
-      <c r="J123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K123" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B124" s="90"/>
-      <c r="C124" s="91"/>
-      <c r="L124" s="16"/>
-    </row>
-    <row r="125" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B125" s="90"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="E125" s="63"/>
-      <c r="F125" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="78"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G124" s="84"/>
+      <c r="H124" s="84"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A125" s="1"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G125" s="84"/>
+      <c r="H125" s="84"/>
+      <c r="I125" s="85"/>
       <c r="J125" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K125" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L125" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A126" s="1"/>
-      <c r="B126" s="90"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G126" s="77"/>
-      <c r="H126" s="77"/>
-      <c r="I126" s="78"/>
+      <c r="L125" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B126" s="112"/>
+      <c r="C126" s="113"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G126" s="84"/>
+      <c r="H126" s="84"/>
+      <c r="I126" s="85"/>
       <c r="J126" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K126" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L126" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B127" s="90"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="87"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="76" t="s">
+      <c r="L126" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B127" s="112"/>
+      <c r="C127" s="113"/>
+      <c r="L127" s="16"/>
+    </row>
+    <row r="128" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B128" s="112"/>
+      <c r="C128" s="113"/>
+      <c r="D128" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="G127" s="77"/>
-      <c r="H127" s="77"/>
-      <c r="I127" s="78"/>
-      <c r="J127" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K127" s="20" t="s">
+      <c r="E128" s="73"/>
+      <c r="F128" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G128" s="84"/>
+      <c r="H128" s="84"/>
+      <c r="I128" s="84"/>
+      <c r="J128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L127" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B128" s="90"/>
-      <c r="C128" s="91"/>
-      <c r="L128" s="16"/>
-    </row>
-    <row r="129" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B129" s="90"/>
-      <c r="C129" s="91"/>
-      <c r="D129" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="63"/>
-      <c r="F129" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G129" s="77"/>
-      <c r="H129" s="77"/>
-      <c r="I129" s="77"/>
+      <c r="L128" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B129" s="112"/>
+      <c r="C129" s="113"/>
+      <c r="D129" s="116"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129" s="84"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="84"/>
       <c r="J129" s="5" t="s">
         <v>11</v>
       </c>
@@ -5635,68 +5588,68 @@
         <v>16</v>
       </c>
       <c r="L129" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B130" s="90"/>
-      <c r="C130" s="91"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G130" s="77"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="77"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B130" s="112"/>
+      <c r="C130" s="113"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="G130" s="84"/>
+      <c r="H130" s="84"/>
+      <c r="I130" s="84"/>
       <c r="J130" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K130" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L130" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B131" s="90"/>
-      <c r="C131" s="91"/>
-      <c r="D131" s="87"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="76" t="s">
+      <c r="L130" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B131" s="112"/>
+      <c r="C131" s="113"/>
+    </row>
+    <row r="132" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B132" s="112"/>
+      <c r="C132" s="113"/>
+      <c r="D132" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="G131" s="77"/>
-      <c r="H131" s="77"/>
-      <c r="I131" s="77"/>
-      <c r="J131" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K131" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B132" s="90"/>
-      <c r="C132" s="91"/>
-    </row>
-    <row r="133" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B133" s="90"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="62" t="s">
+      <c r="E132" s="73"/>
+      <c r="F132" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="E133" s="63"/>
-      <c r="F133" s="76" t="s">
+      <c r="G132" s="84"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="85"/>
+      <c r="J132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K132" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B133" s="112"/>
+      <c r="C133" s="113"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="G133" s="77"/>
-      <c r="H133" s="77"/>
-      <c r="I133" s="78"/>
+      <c r="G133" s="84"/>
+      <c r="H133" s="84"/>
+      <c r="I133" s="85"/>
       <c r="J133" s="5" t="s">
         <v>7</v>
       </c>
@@ -5707,50 +5660,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B134" s="90"/>
-      <c r="C134" s="91"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="76" t="s">
+    <row r="134" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B134" s="112"/>
+      <c r="C134" s="113"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B135" s="112"/>
+      <c r="C135" s="113"/>
+      <c r="D135" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E135" s="73"/>
+      <c r="F135" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G134" s="77"/>
-      <c r="H134" s="77"/>
-      <c r="I134" s="78"/>
-      <c r="J134" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K134" s="20" t="s">
+      <c r="G135" s="84"/>
+      <c r="H135" s="84"/>
+      <c r="I135" s="85"/>
+      <c r="J135" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135" s="5">
         <v>14</v>
       </c>
-      <c r="L134" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B135" s="90"/>
-      <c r="C135" s="91"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B136" s="90"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E136" s="63"/>
-      <c r="F136" s="76" t="s">
+    </row>
+    <row r="136" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B136" s="112"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="78"/>
+      <c r="G136" s="84"/>
+      <c r="H136" s="84"/>
+      <c r="I136" s="85"/>
       <c r="J136" s="5" t="s">
         <v>12</v>
       </c>
@@ -5758,53 +5711,53 @@
         <v>16</v>
       </c>
       <c r="L136" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B137" s="112"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B138" s="112"/>
+      <c r="C138" s="113"/>
+      <c r="D138" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="73"/>
+      <c r="F138" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G138" s="84"/>
+      <c r="H138" s="84"/>
+      <c r="I138" s="85"/>
+      <c r="J138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K138" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B137" s="90"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="87"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="G137" s="77"/>
-      <c r="H137" s="77"/>
-      <c r="I137" s="78"/>
-      <c r="J137" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K137" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B138" s="90"/>
-      <c r="C138" s="91"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B139" s="90"/>
-      <c r="C139" s="91"/>
-      <c r="D139" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E139" s="63"/>
-      <c r="F139" s="76" t="s">
+      <c r="L138" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B139" s="112"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="75"/>
+      <c r="F139" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="78"/>
+      <c r="G139" s="84"/>
+      <c r="H139" s="84"/>
+      <c r="I139" s="85"/>
       <c r="J139" s="5" t="s">
         <v>7</v>
       </c>
@@ -5812,252 +5765,252 @@
         <v>14</v>
       </c>
       <c r="L139" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B140" s="90"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B140" s="112"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="76"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="78"/>
+      <c r="G140" s="84"/>
+      <c r="H140" s="84"/>
+      <c r="I140" s="85"/>
       <c r="J140" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K140" s="20" t="s">
         <v>14</v>
       </c>
       <c r="L140" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="90"/>
-      <c r="C141" s="91"/>
-      <c r="D141" s="87"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B141" s="112"/>
+      <c r="C141" s="113"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="42"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="40"/>
+    </row>
+    <row r="142" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B142" s="112"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="E142" s="73"/>
+      <c r="F142" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="G142" s="84"/>
+      <c r="H142" s="84"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K142" s="20"/>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B143" s="112"/>
+      <c r="C143" s="113"/>
+      <c r="D143" s="117"/>
+      <c r="E143" s="75"/>
+      <c r="F143" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="G143" s="84"/>
+      <c r="H143" s="84"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="20"/>
+      <c r="L143" s="39"/>
+    </row>
+    <row r="144" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B144" s="112"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="G144" s="84"/>
+      <c r="H144" s="84"/>
+      <c r="I144" s="85"/>
+      <c r="J144" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K144" s="5"/>
+      <c r="L144" s="39"/>
+    </row>
+    <row r="145" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B145" s="112"/>
+      <c r="C145" s="113"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="41"/>
+    </row>
+    <row r="146" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B146" s="114"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="78"/>
-      <c r="J141" s="5" t="s">
+      <c r="E146" s="82"/>
+      <c r="F146" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="G146" s="123"/>
+      <c r="H146" s="123"/>
+      <c r="I146" s="123"/>
+      <c r="J146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L146" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B149" s="110"/>
+      <c r="C149" s="111"/>
+      <c r="D149" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="73"/>
+      <c r="F149" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="68"/>
+      <c r="J149" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K149" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B150" s="112"/>
+      <c r="C150" s="113"/>
+      <c r="D150" s="90"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="68"/>
+      <c r="J150" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="K141" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L141" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B142" s="90"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-      <c r="F142" s="42"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="40"/>
-      <c r="K142" s="37"/>
-      <c r="L142" s="40"/>
-    </row>
-    <row r="143" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B143" s="90"/>
-      <c r="C143" s="91"/>
-      <c r="D143" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="E143" s="63"/>
-      <c r="F143" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="78"/>
-      <c r="J143" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K143" s="20"/>
-      <c r="L143" s="5"/>
-    </row>
-    <row r="144" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B144" s="90"/>
-      <c r="C144" s="91"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="G144" s="77"/>
-      <c r="H144" s="77"/>
-      <c r="I144" s="78"/>
-      <c r="J144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="20"/>
-      <c r="L144" s="39"/>
-    </row>
-    <row r="145" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B145" s="90"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="G145" s="77"/>
-      <c r="H145" s="77"/>
-      <c r="I145" s="78"/>
-      <c r="J145" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K145" s="5"/>
-      <c r="L145" s="39"/>
-    </row>
-    <row r="146" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B146" s="90"/>
-      <c r="C146" s="91"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
-      <c r="K146" s="41"/>
-      <c r="L146" s="41"/>
-    </row>
-    <row r="147" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B147" s="92"/>
-      <c r="C147" s="93"/>
-      <c r="D147" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="E147" s="69"/>
-      <c r="F147" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="G147" s="117"/>
-      <c r="H147" s="117"/>
-      <c r="I147" s="117"/>
-      <c r="J147" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L147" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-    </row>
-    <row r="150" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B150" s="88"/>
-      <c r="C150" s="89"/>
-      <c r="D150" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E150" s="63"/>
-      <c r="F150" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="67"/>
-      <c r="J150" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="K150" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L150" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B151" s="90"/>
-      <c r="C151" s="91"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="67"/>
-      <c r="J151" s="5" t="s">
+      <c r="L150" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B151" s="112"/>
+      <c r="C151" s="113"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="36"/>
+    </row>
+    <row r="152" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B152" s="112"/>
+      <c r="C152" s="113"/>
+      <c r="D152" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" s="73"/>
+      <c r="F152" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="68"/>
+      <c r="J152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K152" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L152" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B153" s="112"/>
+      <c r="C153" s="113"/>
+      <c r="D153" s="117"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="K151" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L151" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B152" s="90"/>
-      <c r="C152" s="91"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="37"/>
-      <c r="L152" s="36"/>
-    </row>
-    <row r="153" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B153" s="90"/>
-      <c r="C153" s="91"/>
-      <c r="D153" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="63"/>
-      <c r="F153" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" s="66"/>
-      <c r="H153" s="66"/>
-      <c r="I153" s="67"/>
-      <c r="J153" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="K153" s="20" t="s">
         <v>21</v>
       </c>
       <c r="L153" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B154" s="90"/>
-      <c r="C154" s="91"/>
-      <c r="D154" s="73"/>
-      <c r="E154" s="74"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B154" s="112"/>
+      <c r="C154" s="113"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="77"/>
       <c r="F154" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="G154" s="66"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="67"/>
+        <v>192</v>
+      </c>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="68"/>
       <c r="J154" s="5" t="s">
         <v>11</v>
       </c>
@@ -6065,173 +6018,184 @@
         <v>21</v>
       </c>
       <c r="L154" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B155" s="112"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="37"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="37"/>
+      <c r="L155" s="36"/>
+    </row>
+    <row r="156" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B156" s="112"/>
+      <c r="C156" s="113"/>
+      <c r="D156" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E156" s="82"/>
+      <c r="F156" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G156" s="70"/>
+      <c r="H156" s="70"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L156" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B157" s="112"/>
+      <c r="C157" s="113"/>
+    </row>
+    <row r="158" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B158" s="112"/>
+      <c r="C158" s="113"/>
+      <c r="D158" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E158" s="73"/>
+      <c r="F158" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G158" s="67"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="68"/>
+      <c r="J158" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K158" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B159" s="112"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" s="70"/>
+      <c r="H159" s="70"/>
+      <c r="I159" s="71"/>
+      <c r="J159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L159" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B160" s="112"/>
+      <c r="C160" s="113"/>
+    </row>
+    <row r="161" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B161" s="112"/>
+      <c r="C161" s="113"/>
+      <c r="D161" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="E161" s="73"/>
+      <c r="F161" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" s="70"/>
+      <c r="H161" s="70"/>
+      <c r="I161" s="71"/>
+      <c r="J161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L161" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B162" s="112"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="90"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="68"/>
+      <c r="J162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K162" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B155" s="90"/>
-      <c r="C155" s="91"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G155" s="66"/>
-      <c r="H155" s="66"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="5" t="s">
+      <c r="U162" s="58"/>
+    </row>
+    <row r="163" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B163" s="112"/>
+      <c r="C163" s="113"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="N163" s="49"/>
+      <c r="O163" s="49"/>
+      <c r="P163" s="61"/>
+      <c r="Q163" s="42"/>
+      <c r="R163" s="42"/>
+      <c r="S163" s="42"/>
+      <c r="T163" s="49"/>
+      <c r="U163" s="42"/>
+      <c r="V163" s="49"/>
+    </row>
+    <row r="164" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B164" s="112"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E164" s="73"/>
+      <c r="F164" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="G164" s="87"/>
+      <c r="H164" s="87"/>
+      <c r="I164" s="88"/>
+      <c r="J164" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K155" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L155" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B156" s="90"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="37"/>
-      <c r="L156" s="36"/>
-    </row>
-    <row r="157" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B157" s="90"/>
-      <c r="C157" s="91"/>
-      <c r="D157" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="E157" s="69"/>
-      <c r="F157" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="G157" s="84"/>
-      <c r="H157" s="84"/>
-      <c r="I157" s="85"/>
-      <c r="J157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L157" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B158" s="90"/>
-      <c r="C158" s="91"/>
-    </row>
-    <row r="159" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B159" s="90"/>
-      <c r="C159" s="91"/>
-      <c r="D159" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E159" s="63"/>
-      <c r="F159" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="67"/>
-      <c r="J159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K159" s="20" t="s">
+      <c r="K164" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L159" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B160" s="90"/>
-      <c r="C160" s="91"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="65"/>
-      <c r="F160" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="G160" s="84"/>
-      <c r="H160" s="84"/>
-      <c r="I160" s="85"/>
-      <c r="J160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L160" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B161" s="90"/>
-      <c r="C161" s="91"/>
-    </row>
-    <row r="162" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B162" s="90"/>
-      <c r="C162" s="91"/>
-      <c r="D162" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="E162" s="63"/>
-      <c r="F162" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="G162" s="84"/>
-      <c r="H162" s="84"/>
-      <c r="I162" s="85"/>
-      <c r="J162" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L162" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B163" s="90"/>
-      <c r="C163" s="91"/>
-      <c r="D163" s="64"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="G163" s="66"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="67"/>
-      <c r="J163" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K163" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L163" s="15">
-        <v>3</v>
-      </c>
-      <c r="U163" s="58"/>
-    </row>
-    <row r="164" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B164" s="90"/>
-      <c r="C164" s="91"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="L164" s="5">
+        <v>6</v>
+      </c>
       <c r="N164" s="49"/>
       <c r="O164" s="49"/>
       <c r="P164" s="61"/>
@@ -6242,19 +6206,17 @@
       <c r="U164" s="42"/>
       <c r="V164" s="49"/>
     </row>
-    <row r="165" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B165" s="90"/>
-      <c r="C165" s="91"/>
-      <c r="D165" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="E165" s="63"/>
-      <c r="F165" s="136" t="s">
+    <row r="165" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B165" s="112"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="90"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="G165" s="136"/>
-      <c r="H165" s="136"/>
-      <c r="I165" s="137"/>
+      <c r="G165" s="87"/>
+      <c r="H165" s="87"/>
+      <c r="I165" s="88"/>
       <c r="J165" s="5" t="s">
         <v>11</v>
       </c>
@@ -6262,7 +6224,7 @@
         <v>19</v>
       </c>
       <c r="L165" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N165" s="49"/>
       <c r="O165" s="49"/>
@@ -6274,26 +6236,18 @@
       <c r="U165" s="42"/>
       <c r="V165" s="49"/>
     </row>
-    <row r="166" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B166" s="90"/>
-      <c r="C166" s="91"/>
-      <c r="D166" s="64"/>
-      <c r="E166" s="65"/>
-      <c r="F166" s="135" t="s">
-        <v>239</v>
-      </c>
-      <c r="G166" s="136"/>
-      <c r="H166" s="136"/>
-      <c r="I166" s="137"/>
-      <c r="J166" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L166" s="5">
-        <v>3</v>
-      </c>
+    <row r="166" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B166" s="112"/>
+      <c r="C166" s="113"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="59"/>
+      <c r="L166" s="59"/>
       <c r="N166" s="49"/>
       <c r="O166" s="49"/>
       <c r="P166" s="61"/>
@@ -6304,18 +6258,28 @@
       <c r="U166" s="42"/>
       <c r="V166" s="49"/>
     </row>
-    <row r="167" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B167" s="90"/>
-      <c r="C167" s="91"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="59"/>
+    <row r="167" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B167" s="112"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E167" s="73"/>
+      <c r="F167" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="65"/>
+      <c r="J167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L167" s="5">
+        <v>2</v>
+      </c>
       <c r="N167" s="49"/>
       <c r="O167" s="49"/>
       <c r="P167" s="61"/>
@@ -6326,27 +6290,25 @@
       <c r="U167" s="42"/>
       <c r="V167" s="49"/>
     </row>
-    <row r="168" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B168" s="90"/>
-      <c r="C168" s="91"/>
-      <c r="D168" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="E168" s="63"/>
-      <c r="F168" s="132" t="s">
-        <v>225</v>
-      </c>
-      <c r="G168" s="133"/>
-      <c r="H168" s="133"/>
-      <c r="I168" s="134"/>
+    <row r="168" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B168" s="112"/>
+      <c r="C168" s="113"/>
+      <c r="D168" s="90"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="G168" s="87"/>
+      <c r="H168" s="87"/>
+      <c r="I168" s="88"/>
       <c r="J168" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L168" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N168" s="49"/>
       <c r="O168" s="49"/>
@@ -6358,26 +6320,18 @@
       <c r="U168" s="42"/>
       <c r="V168" s="49"/>
     </row>
-    <row r="169" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="90"/>
-      <c r="C169" s="91"/>
-      <c r="D169" s="64"/>
-      <c r="E169" s="65"/>
-      <c r="F169" s="135" t="s">
-        <v>226</v>
-      </c>
-      <c r="G169" s="136"/>
-      <c r="H169" s="136"/>
-      <c r="I169" s="137"/>
-      <c r="J169" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L169" s="5">
-        <v>3</v>
-      </c>
+    <row r="169" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B169" s="112"/>
+      <c r="C169" s="113"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="59"/>
+      <c r="J169" s="59"/>
+      <c r="K169" s="59"/>
+      <c r="L169" s="59"/>
       <c r="N169" s="49"/>
       <c r="O169" s="49"/>
       <c r="P169" s="61"/>
@@ -6388,519 +6342,518 @@
       <c r="U169" s="42"/>
       <c r="V169" s="49"/>
     </row>
-    <row r="170" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B170" s="90"/>
-      <c r="C170" s="91"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
-      <c r="L170" s="59"/>
-      <c r="N170" s="49"/>
-      <c r="O170" s="49"/>
-      <c r="P170" s="61"/>
-      <c r="Q170" s="42"/>
-      <c r="R170" s="42"/>
-      <c r="S170" s="42"/>
-      <c r="T170" s="49"/>
-      <c r="U170" s="42"/>
-      <c r="V170" s="49"/>
-    </row>
-    <row r="171" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B171" s="90"/>
-      <c r="C171" s="91"/>
-      <c r="D171" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E171" s="63"/>
-      <c r="F171" s="75" t="s">
+    <row r="170" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B170" s="112"/>
+      <c r="C170" s="113"/>
+      <c r="D170" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E170" s="73"/>
+      <c r="F170" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="68"/>
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" s="5">
+        <v>5</v>
+      </c>
+      <c r="U170" s="58"/>
+    </row>
+    <row r="171" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B171" s="112"/>
+      <c r="C171" s="113"/>
+      <c r="D171" s="116"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="G171" s="66"/>
-      <c r="H171" s="66"/>
-      <c r="I171" s="67"/>
+      <c r="G171" s="70"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="71"/>
       <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L171" s="5">
         <v>5</v>
       </c>
-      <c r="U171" s="58"/>
-    </row>
-    <row r="172" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B172" s="90"/>
-      <c r="C172" s="91"/>
-      <c r="D172" s="82"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="83" t="s">
+      <c r="L171" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B172" s="112"/>
+      <c r="C172" s="113"/>
+      <c r="D172" s="116"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="G172" s="84"/>
-      <c r="H172" s="84"/>
-      <c r="I172" s="85"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="68"/>
       <c r="J172" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K172" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172" s="17">
         <v>5</v>
       </c>
-      <c r="L172" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B173" s="90"/>
-      <c r="C173" s="91"/>
-      <c r="D173" s="82"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="75" t="s">
+    </row>
+    <row r="173" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B173" s="112"/>
+      <c r="C173" s="113"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="G173" s="66"/>
-      <c r="H173" s="66"/>
-      <c r="I173" s="67"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="71"/>
       <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L173" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B174" s="112"/>
+      <c r="C174" s="113"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B175" s="112"/>
+      <c r="C175" s="113"/>
+      <c r="D175" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E175" s="73"/>
+      <c r="F175" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G175" s="67"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="68"/>
+      <c r="J175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B174" s="90"/>
-      <c r="C174" s="91"/>
-      <c r="D174" s="87"/>
-      <c r="E174" s="65"/>
-      <c r="F174" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="G174" s="84"/>
-      <c r="H174" s="84"/>
-      <c r="I174" s="85"/>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L174" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B175" s="90"/>
-      <c r="C175" s="91"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B176" s="90"/>
-      <c r="C176" s="91"/>
-      <c r="D176" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E176" s="63"/>
+    <row r="176" spans="2:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B176" s="112"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="90"/>
+      <c r="E176" s="77"/>
       <c r="F176" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="G176" s="66"/>
-      <c r="H176" s="66"/>
-      <c r="I176" s="67"/>
+      <c r="G176" s="67"/>
+      <c r="H176" s="67"/>
+      <c r="I176" s="68"/>
       <c r="J176" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L176" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B177" s="90"/>
-      <c r="C177" s="91"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="65"/>
-      <c r="F177" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L176" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B177" s="112"/>
+      <c r="C177" s="113"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="26"/>
+    </row>
+    <row r="178" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B178" s="112"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="G177" s="66"/>
-      <c r="H177" s="66"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="5" t="s">
+      <c r="E178" s="81"/>
+      <c r="F178" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+      <c r="I178" s="68"/>
+      <c r="J178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B179" s="112"/>
+      <c r="C179" s="113"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
+      <c r="J179" s="26"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="26"/>
+    </row>
+    <row r="180" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B180" s="112"/>
+      <c r="C180" s="113"/>
+      <c r="D180" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="E180" s="73"/>
+      <c r="F180" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="68"/>
+      <c r="J180" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B181" s="112"/>
+      <c r="C181" s="113"/>
+      <c r="D181" s="90"/>
+      <c r="E181" s="77"/>
+      <c r="F181" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="G181" s="67"/>
+      <c r="H181" s="67"/>
+      <c r="I181" s="68"/>
+      <c r="J181" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L177" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B178" s="90"/>
-      <c r="C178" s="91"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="26"/>
-      <c r="L178" s="26"/>
-    </row>
-    <row r="179" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B179" s="90"/>
-      <c r="C179" s="91"/>
-      <c r="D179" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="E179" s="109"/>
-      <c r="F179" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="G179" s="66"/>
-      <c r="H179" s="66"/>
-      <c r="I179" s="67"/>
-      <c r="J179" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K179" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L179" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B180" s="90"/>
-      <c r="C180" s="91"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="26"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="26"/>
-      <c r="L180" s="26"/>
-    </row>
-    <row r="181" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B181" s="90"/>
-      <c r="C181" s="91"/>
-      <c r="D181" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E181" s="63"/>
-      <c r="F181" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="G181" s="66"/>
-      <c r="H181" s="66"/>
-      <c r="I181" s="67"/>
-      <c r="J181" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="K181" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L181" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B182" s="90"/>
-      <c r="C182" s="91"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="65"/>
-      <c r="F182" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B182" s="112"/>
+      <c r="C182" s="113"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="38"/>
+      <c r="G182" s="38"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="38"/>
+      <c r="J182" s="38"/>
+      <c r="K182" s="38"/>
+      <c r="L182" s="38"/>
+    </row>
+    <row r="183" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B183" s="112"/>
+      <c r="C183" s="113"/>
+      <c r="D183" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="E183" s="82"/>
+      <c r="F183" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="G182" s="66"/>
-      <c r="H182" s="66"/>
-      <c r="I182" s="67"/>
-      <c r="J182" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L182" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B183" s="90"/>
-      <c r="C183" s="91"/>
-      <c r="D183" s="38"/>
-      <c r="E183" s="38"/>
-      <c r="F183" s="38"/>
-      <c r="G183" s="38"/>
-      <c r="H183" s="38"/>
-      <c r="I183" s="38"/>
-      <c r="J183" s="38"/>
-      <c r="K183" s="38"/>
-      <c r="L183" s="38"/>
-    </row>
-    <row r="184" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B184" s="90"/>
-      <c r="C184" s="91"/>
-      <c r="D184" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="E184" s="69"/>
-      <c r="F184" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="G184" s="66"/>
-      <c r="H184" s="66"/>
-      <c r="I184" s="67"/>
-      <c r="J184" s="5" t="s">
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="68"/>
+      <c r="J183" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K183" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L184" s="5">
+      <c r="L183" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B185" s="90"/>
-      <c r="C185" s="91"/>
-      <c r="D185" s="38"/>
-      <c r="E185" s="38"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="38"/>
-      <c r="H185" s="38"/>
-      <c r="I185" s="38"/>
-      <c r="J185" s="38"/>
-      <c r="K185" s="38"/>
-      <c r="L185" s="38"/>
-    </row>
-    <row r="186" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B186" s="90"/>
-      <c r="C186" s="91"/>
-      <c r="D186" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E186" s="63"/>
-      <c r="F186" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="G186" s="114"/>
-      <c r="H186" s="114"/>
-      <c r="I186" s="115"/>
+    <row r="184" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B184" s="112"/>
+      <c r="C184" s="113"/>
+      <c r="D184" s="38"/>
+      <c r="E184" s="38"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="38"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="38"/>
+      <c r="J184" s="38"/>
+      <c r="K184" s="38"/>
+      <c r="L184" s="38"/>
+    </row>
+    <row r="185" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B185" s="112"/>
+      <c r="C185" s="113"/>
+      <c r="D185" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E185" s="73"/>
+      <c r="F185" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="G185" s="119"/>
+      <c r="H185" s="119"/>
+      <c r="I185" s="120"/>
+      <c r="J185" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K185" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B186" s="112"/>
+      <c r="C186" s="113"/>
+      <c r="D186" s="90"/>
+      <c r="E186" s="77"/>
+      <c r="F186" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="G186" s="125"/>
+      <c r="H186" s="125"/>
+      <c r="I186" s="126"/>
       <c r="J186" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K186" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L186" s="17">
+      <c r="L186" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B187" s="112"/>
+      <c r="C187" s="113"/>
+    </row>
+    <row r="188" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B188" s="112"/>
+      <c r="C188" s="113"/>
+      <c r="D188" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E188" s="73"/>
+      <c r="F188" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="68"/>
+      <c r="J188" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K188" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L188" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B187" s="90"/>
-      <c r="C187" s="91"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="65"/>
-      <c r="F187" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="G187" s="111"/>
-      <c r="H187" s="111"/>
-      <c r="I187" s="112"/>
-      <c r="J187" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K187" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L187" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B188" s="90"/>
-      <c r="C188" s="91"/>
-    </row>
-    <row r="189" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B189" s="90"/>
-      <c r="C189" s="91"/>
-      <c r="D189" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="E189" s="63"/>
-      <c r="F189" s="75" t="s">
+    <row r="189" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B189" s="112"/>
+      <c r="C189" s="113"/>
+      <c r="D189" s="117"/>
+      <c r="E189" s="75"/>
+      <c r="F189" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="G189" s="66"/>
-      <c r="H189" s="66"/>
-      <c r="I189" s="67"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+      <c r="I189" s="68"/>
       <c r="J189" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L189" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B190" s="90"/>
-      <c r="C190" s="91"/>
-      <c r="D190" s="73"/>
-      <c r="E190" s="74"/>
-      <c r="F190" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B190" s="112"/>
+      <c r="C190" s="113"/>
+      <c r="D190" s="90"/>
+      <c r="E190" s="77"/>
+      <c r="F190" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="G190" s="66"/>
-      <c r="H190" s="66"/>
-      <c r="I190" s="67"/>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+      <c r="I190" s="68"/>
       <c r="J190" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K190" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L190" s="30">
+      <c r="L190" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B191" s="112"/>
+      <c r="C191" s="113"/>
+      <c r="F191" s="116"/>
+      <c r="G191" s="116"/>
+      <c r="H191" s="116"/>
+      <c r="I191" s="116"/>
+    </row>
+    <row r="192" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B192" s="112"/>
+      <c r="C192" s="113"/>
+      <c r="D192" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="E192" s="82"/>
+      <c r="F192" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="G192" s="67"/>
+      <c r="H192" s="67"/>
+      <c r="I192" s="68"/>
+      <c r="J192" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K192" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L192" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B191" s="90"/>
-      <c r="C191" s="91"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="65"/>
-      <c r="F191" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="G191" s="66"/>
-      <c r="H191" s="66"/>
-      <c r="I191" s="67"/>
-      <c r="J191" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K191" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L191" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B192" s="90"/>
-      <c r="C192" s="91"/>
-      <c r="F192" s="82"/>
-      <c r="G192" s="82"/>
-      <c r="H192" s="82"/>
-      <c r="I192" s="82"/>
-    </row>
-    <row r="193" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B193" s="90"/>
-      <c r="C193" s="91"/>
-      <c r="D193" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="E193" s="69"/>
-      <c r="F193" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="G193" s="66"/>
-      <c r="H193" s="66"/>
-      <c r="I193" s="67"/>
-      <c r="J193" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K193" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L193" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B194" s="90"/>
-      <c r="C194" s="91"/>
-      <c r="F194" s="82"/>
-      <c r="G194" s="82"/>
-      <c r="H194" s="82"/>
-      <c r="I194" s="82"/>
-    </row>
-    <row r="195" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B195" s="90"/>
-      <c r="C195" s="91"/>
-      <c r="D195" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="E195" s="63"/>
+    <row r="193" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B193" s="112"/>
+      <c r="C193" s="113"/>
+      <c r="F193" s="116"/>
+      <c r="G193" s="116"/>
+      <c r="H193" s="116"/>
+      <c r="I193" s="116"/>
+    </row>
+    <row r="194" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B194" s="112"/>
+      <c r="C194" s="113"/>
+      <c r="D194" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="E194" s="73"/>
+      <c r="F194" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="G194" s="67"/>
+      <c r="H194" s="67"/>
+      <c r="I194" s="68"/>
+      <c r="J194" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K194" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L194" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B195" s="112"/>
+      <c r="C195" s="113"/>
+      <c r="D195" s="117"/>
+      <c r="E195" s="75"/>
       <c r="F195" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="G195" s="66"/>
-      <c r="H195" s="66"/>
-      <c r="I195" s="67"/>
+      <c r="G195" s="67"/>
+      <c r="H195" s="67"/>
+      <c r="I195" s="68"/>
       <c r="J195" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K195" s="20" t="s">
         <v>21</v>
       </c>
       <c r="L195" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B196" s="90"/>
-      <c r="C196" s="91"/>
-      <c r="D196" s="73"/>
-      <c r="E196" s="74"/>
-      <c r="F196" s="75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B196" s="112"/>
+      <c r="C196" s="113"/>
+      <c r="D196" s="117"/>
+      <c r="E196" s="75"/>
+      <c r="F196" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G196" s="66"/>
-      <c r="H196" s="66"/>
-      <c r="I196" s="67"/>
+      <c r="G196" s="67"/>
+      <c r="H196" s="67"/>
+      <c r="I196" s="68"/>
       <c r="J196" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K196" s="20" t="s">
         <v>21</v>
       </c>
       <c r="L196" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B197" s="90"/>
-      <c r="C197" s="91"/>
-      <c r="D197" s="73"/>
-      <c r="E197" s="74"/>
-      <c r="F197" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="G197" s="66"/>
-      <c r="H197" s="66"/>
-      <c r="I197" s="67"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B197" s="112"/>
+      <c r="C197" s="113"/>
+      <c r="D197" s="117"/>
+      <c r="E197" s="75"/>
+      <c r="F197" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="G197" s="67"/>
+      <c r="H197" s="67"/>
+      <c r="I197" s="68"/>
       <c r="J197" s="5" t="s">
         <v>7</v>
       </c>
@@ -6908,137 +6861,137 @@
         <v>21</v>
       </c>
       <c r="L197" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B198" s="90"/>
-      <c r="C198" s="91"/>
-      <c r="D198" s="73"/>
-      <c r="E198" s="74"/>
-      <c r="F198" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="G198" s="66"/>
-      <c r="H198" s="66"/>
-      <c r="I198" s="67"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B198" s="112"/>
+      <c r="C198" s="113"/>
+      <c r="D198" s="117"/>
+      <c r="E198" s="75"/>
+      <c r="F198" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G198" s="67"/>
+      <c r="H198" s="67"/>
+      <c r="I198" s="68"/>
       <c r="J198" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K198" s="20" t="s">
-        <v>21</v>
+      <c r="K198" s="37" t="s">
+        <v>171</v>
       </c>
       <c r="L198" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B199" s="90"/>
-      <c r="C199" s="91"/>
-      <c r="D199" s="73"/>
-      <c r="E199" s="74"/>
-      <c r="F199" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="G199" s="66"/>
-      <c r="H199" s="66"/>
-      <c r="I199" s="67"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B199" s="112"/>
+      <c r="C199" s="113"/>
+      <c r="D199" s="117"/>
+      <c r="E199" s="75"/>
+      <c r="F199" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="G199" s="67"/>
+      <c r="H199" s="67"/>
+      <c r="I199" s="68"/>
       <c r="J199" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K199" s="37" t="s">
-        <v>172</v>
+      <c r="K199" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="L199" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B200" s="90"/>
-      <c r="C200" s="91"/>
-      <c r="D200" s="73"/>
-      <c r="E200" s="74"/>
-      <c r="F200" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="G200" s="66"/>
-      <c r="H200" s="66"/>
-      <c r="I200" s="67"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" s="31" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B200" s="112"/>
+      <c r="C200" s="113"/>
+      <c r="D200" s="117"/>
+      <c r="E200" s="75"/>
+      <c r="F200" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="G200" s="79"/>
+      <c r="H200" s="79"/>
+      <c r="I200" s="80"/>
       <c r="J200" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K200" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L200" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="2:12" s="31" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B201" s="90"/>
-      <c r="C201" s="91"/>
-      <c r="D201" s="73"/>
-      <c r="E201" s="74"/>
-      <c r="F201" s="79" t="s">
+      <c r="K200" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G201" s="80"/>
-      <c r="H201" s="80"/>
-      <c r="I201" s="81"/>
+      <c r="L200" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B201" s="112"/>
+      <c r="C201" s="113"/>
+      <c r="D201" s="90"/>
+      <c r="E201" s="77"/>
+      <c r="F201" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="G201" s="67"/>
+      <c r="H201" s="67"/>
+      <c r="I201" s="68"/>
       <c r="J201" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K201" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="L201" s="34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B202" s="90"/>
-      <c r="C202" s="91"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="65"/>
-      <c r="F202" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="G202" s="66"/>
-      <c r="H202" s="66"/>
-      <c r="I202" s="67"/>
-      <c r="J202" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K202" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L202" s="5">
+      <c r="K201" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L201" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B203" s="90"/>
-      <c r="C203" s="91"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="29"/>
-      <c r="I203" s="29"/>
-      <c r="K203" s="29"/>
-      <c r="L203" s="29"/>
-    </row>
-    <row r="204" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B204" s="90"/>
-      <c r="C204" s="91"/>
-      <c r="D204" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E204" s="63"/>
-      <c r="F204" s="83" t="s">
+    <row r="202" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B202" s="112"/>
+      <c r="C202" s="113"/>
+      <c r="F202" s="29"/>
+      <c r="G202" s="29"/>
+      <c r="H202" s="29"/>
+      <c r="I202" s="29"/>
+      <c r="K202" s="29"/>
+      <c r="L202" s="29"/>
+    </row>
+    <row r="203" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B203" s="112"/>
+      <c r="C203" s="113"/>
+      <c r="D203" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E203" s="73"/>
+      <c r="F203" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G203" s="70"/>
+      <c r="H203" s="70"/>
+      <c r="I203" s="71"/>
+      <c r="J203" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L203" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B204" s="112"/>
+      <c r="C204" s="113"/>
+      <c r="D204" s="116"/>
+      <c r="E204" s="75"/>
+      <c r="F204" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="G204" s="84"/>
-      <c r="H204" s="84"/>
-      <c r="I204" s="85"/>
+      <c r="G204" s="70"/>
+      <c r="H204" s="70"/>
+      <c r="I204" s="71"/>
       <c r="J204" s="5" t="s">
         <v>11</v>
       </c>
@@ -7049,17 +7002,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B205" s="90"/>
-      <c r="C205" s="91"/>
-      <c r="D205" s="82"/>
-      <c r="E205" s="74"/>
-      <c r="F205" s="83" t="s">
+    <row r="205" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B205" s="112"/>
+      <c r="C205" s="113"/>
+      <c r="D205" s="116"/>
+      <c r="E205" s="75"/>
+      <c r="F205" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="G205" s="84"/>
-      <c r="H205" s="84"/>
-      <c r="I205" s="85"/>
+      <c r="G205" s="70"/>
+      <c r="H205" s="70"/>
+      <c r="I205" s="71"/>
       <c r="J205" s="5" t="s">
         <v>11</v>
       </c>
@@ -7070,17 +7023,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B206" s="90"/>
-      <c r="C206" s="91"/>
-      <c r="D206" s="82"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="83" t="s">
+    <row r="206" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B206" s="112"/>
+      <c r="C206" s="113"/>
+      <c r="D206" s="116"/>
+      <c r="E206" s="75"/>
+      <c r="F206" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G206" s="84"/>
-      <c r="H206" s="84"/>
-      <c r="I206" s="85"/>
+      <c r="G206" s="70"/>
+      <c r="H206" s="70"/>
+      <c r="I206" s="71"/>
       <c r="J206" s="5" t="s">
         <v>11</v>
       </c>
@@ -7091,17 +7044,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B207" s="90"/>
-      <c r="C207" s="91"/>
-      <c r="D207" s="82"/>
-      <c r="E207" s="74"/>
-      <c r="F207" s="83" t="s">
+    <row r="207" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B207" s="112"/>
+      <c r="C207" s="113"/>
+      <c r="D207" s="116"/>
+      <c r="E207" s="75"/>
+      <c r="F207" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="G207" s="84"/>
-      <c r="H207" s="84"/>
-      <c r="I207" s="85"/>
+      <c r="G207" s="70"/>
+      <c r="H207" s="70"/>
+      <c r="I207" s="71"/>
       <c r="J207" s="5" t="s">
         <v>11</v>
       </c>
@@ -7112,17 +7065,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B208" s="90"/>
-      <c r="C208" s="91"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="74"/>
-      <c r="F208" s="83" t="s">
+    <row r="208" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B208" s="112"/>
+      <c r="C208" s="113"/>
+      <c r="D208" s="116"/>
+      <c r="E208" s="75"/>
+      <c r="F208" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="G208" s="84"/>
-      <c r="H208" s="84"/>
-      <c r="I208" s="85"/>
+      <c r="G208" s="70"/>
+      <c r="H208" s="70"/>
+      <c r="I208" s="71"/>
       <c r="J208" s="5" t="s">
         <v>11</v>
       </c>
@@ -7133,17 +7086,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B209" s="90"/>
-      <c r="C209" s="91"/>
-      <c r="D209" s="82"/>
-      <c r="E209" s="74"/>
-      <c r="F209" s="83" t="s">
+    <row r="209" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B209" s="112"/>
+      <c r="C209" s="113"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="75"/>
+      <c r="F209" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="G209" s="84"/>
-      <c r="H209" s="84"/>
-      <c r="I209" s="85"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="71"/>
       <c r="J209" s="5" t="s">
         <v>11</v>
       </c>
@@ -7154,17 +7107,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B210" s="90"/>
-      <c r="C210" s="91"/>
-      <c r="D210" s="82"/>
-      <c r="E210" s="74"/>
-      <c r="F210" s="83" t="s">
+    <row r="210" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B210" s="112"/>
+      <c r="C210" s="113"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="77"/>
+      <c r="F210" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="G210" s="84"/>
-      <c r="H210" s="84"/>
-      <c r="I210" s="85"/>
+      <c r="G210" s="70"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="71"/>
       <c r="J210" s="5" t="s">
         <v>11</v>
       </c>
@@ -7175,46 +7128,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B211" s="90"/>
-      <c r="C211" s="91"/>
-      <c r="D211" s="87"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="83" t="s">
+    <row r="211" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B211" s="112"/>
+      <c r="C211" s="113"/>
+    </row>
+    <row r="212" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B212" s="112"/>
+      <c r="C212" s="113"/>
+      <c r="D212" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G211" s="84"/>
-      <c r="H211" s="84"/>
-      <c r="I211" s="85"/>
-      <c r="J211" s="5" t="s">
+      <c r="E212" s="73"/>
+      <c r="F212" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G212" s="70"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="71"/>
+      <c r="J212" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K211" s="20" t="s">
+      <c r="K212" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L211" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B212" s="90"/>
-      <c r="C212" s="91"/>
-    </row>
-    <row r="213" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B213" s="90"/>
-      <c r="C213" s="91"/>
-      <c r="D213" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="E213" s="63"/>
-      <c r="F213" s="83" t="s">
+      <c r="L212" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B213" s="112"/>
+      <c r="C213" s="113"/>
+      <c r="D213" s="116"/>
+      <c r="E213" s="75"/>
+      <c r="F213" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="G213" s="84"/>
-      <c r="H213" s="84"/>
-      <c r="I213" s="85"/>
+      <c r="G213" s="70"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="71"/>
       <c r="J213" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K213" s="20" t="s">
         <v>5</v>
@@ -7223,17 +7176,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B214" s="90"/>
-      <c r="C214" s="91"/>
-      <c r="D214" s="82"/>
-      <c r="E214" s="74"/>
-      <c r="F214" s="83" t="s">
+    <row r="214" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B214" s="112"/>
+      <c r="C214" s="113"/>
+      <c r="D214" s="116"/>
+      <c r="E214" s="75"/>
+      <c r="F214" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="G214" s="84"/>
-      <c r="H214" s="84"/>
-      <c r="I214" s="85"/>
+      <c r="G214" s="70"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="71"/>
       <c r="J214" s="5" t="s">
         <v>7</v>
       </c>
@@ -7244,19 +7197,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B215" s="90"/>
-      <c r="C215" s="91"/>
-      <c r="D215" s="82"/>
-      <c r="E215" s="74"/>
-      <c r="F215" s="83" t="s">
+    <row r="215" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B215" s="112"/>
+      <c r="C215" s="113"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="77"/>
+      <c r="F215" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="G215" s="84"/>
-      <c r="H215" s="84"/>
-      <c r="I215" s="85"/>
+      <c r="G215" s="70"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="71"/>
       <c r="J215" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K215" s="20" t="s">
         <v>5</v>
@@ -7265,44 +7218,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B216" s="90"/>
-      <c r="C216" s="91"/>
-      <c r="D216" s="87"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="83" t="s">
+    <row r="216" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B216" s="112"/>
+      <c r="C216" s="113"/>
+    </row>
+    <row r="217" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B217" s="112"/>
+      <c r="C217" s="113"/>
+      <c r="D217" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G216" s="84"/>
-      <c r="H216" s="84"/>
-      <c r="I216" s="85"/>
-      <c r="J216" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="20" t="s">
+      <c r="E217" s="73"/>
+      <c r="F217" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67"/>
+      <c r="I217" s="68"/>
+      <c r="J217" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K217" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="30">
         <v>5</v>
       </c>
-      <c r="L216" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B217" s="90"/>
-      <c r="C217" s="91"/>
-    </row>
-    <row r="218" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B218" s="90"/>
-      <c r="C218" s="91"/>
-      <c r="D218" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="E218" s="63"/>
-      <c r="F218" s="75" t="s">
+    </row>
+    <row r="218" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B218" s="112"/>
+      <c r="C218" s="113"/>
+      <c r="D218" s="116"/>
+      <c r="E218" s="75"/>
+      <c r="F218" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="G218" s="66"/>
-      <c r="H218" s="66"/>
-      <c r="I218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
+      <c r="I218" s="68"/>
       <c r="J218" s="5" t="s">
         <v>7</v>
       </c>
@@ -7310,20 +7263,20 @@
         <v>20</v>
       </c>
       <c r="L218" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B219" s="90"/>
-      <c r="C219" s="91"/>
-      <c r="D219" s="82"/>
-      <c r="E219" s="74"/>
-      <c r="F219" s="75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B219" s="112"/>
+      <c r="C219" s="113"/>
+      <c r="D219" s="116"/>
+      <c r="E219" s="75"/>
+      <c r="F219" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="G219" s="66"/>
-      <c r="H219" s="66"/>
-      <c r="I219" s="67"/>
+      <c r="G219" s="67"/>
+      <c r="H219" s="67"/>
+      <c r="I219" s="68"/>
       <c r="J219" s="5" t="s">
         <v>7</v>
       </c>
@@ -7331,68 +7284,68 @@
         <v>20</v>
       </c>
       <c r="L219" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B220" s="90"/>
-      <c r="C220" s="91"/>
-      <c r="D220" s="82"/>
-      <c r="E220" s="74"/>
-      <c r="F220" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B220" s="112"/>
+      <c r="C220" s="113"/>
+      <c r="D220" s="76"/>
+      <c r="E220" s="77"/>
+      <c r="F220" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="G220" s="66"/>
-      <c r="H220" s="66"/>
-      <c r="I220" s="67"/>
+      <c r="G220" s="67"/>
+      <c r="H220" s="67"/>
+      <c r="I220" s="68"/>
       <c r="J220" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K220" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L220" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B221" s="90"/>
-      <c r="C221" s="91"/>
-      <c r="D221" s="87"/>
-      <c r="E221" s="65"/>
-      <c r="F221" s="75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B221" s="112"/>
+      <c r="C221" s="113"/>
+    </row>
+    <row r="222" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B222" s="112"/>
+      <c r="C222" s="113"/>
+      <c r="D222" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="G221" s="66"/>
-      <c r="H221" s="66"/>
-      <c r="I221" s="67"/>
-      <c r="J221" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L221" s="30">
+      <c r="E222" s="73"/>
+      <c r="F222" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="G222" s="70"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="71"/>
+      <c r="J222" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K222" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B222" s="90"/>
-      <c r="C222" s="91"/>
-    </row>
-    <row r="223" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B223" s="90"/>
-      <c r="C223" s="91"/>
-      <c r="D223" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="E223" s="63"/>
-      <c r="F223" s="83" t="s">
+      <c r="L222" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B223" s="112"/>
+      <c r="C223" s="113"/>
+      <c r="D223" s="116"/>
+      <c r="E223" s="75"/>
+      <c r="F223" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="G223" s="84"/>
-      <c r="H223" s="84"/>
-      <c r="I223" s="85"/>
+      <c r="G223" s="70"/>
+      <c r="H223" s="70"/>
+      <c r="I223" s="71"/>
       <c r="J223" s="5" t="s">
         <v>12</v>
       </c>
@@ -7403,17 +7356,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B224" s="90"/>
-      <c r="C224" s="91"/>
-      <c r="D224" s="82"/>
-      <c r="E224" s="74"/>
-      <c r="F224" s="83" t="s">
+    <row r="224" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B224" s="112"/>
+      <c r="C224" s="113"/>
+      <c r="D224" s="116"/>
+      <c r="E224" s="75"/>
+      <c r="F224" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="G224" s="84"/>
-      <c r="H224" s="84"/>
-      <c r="I224" s="85"/>
+      <c r="G224" s="70"/>
+      <c r="H224" s="70"/>
+      <c r="I224" s="71"/>
       <c r="J224" s="5" t="s">
         <v>12</v>
       </c>
@@ -7424,17 +7377,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B225" s="90"/>
-      <c r="C225" s="91"/>
-      <c r="D225" s="82"/>
-      <c r="E225" s="74"/>
-      <c r="F225" s="83" t="s">
+    <row r="225" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B225" s="112"/>
+      <c r="C225" s="113"/>
+      <c r="D225" s="116"/>
+      <c r="E225" s="75"/>
+      <c r="F225" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="G225" s="84"/>
-      <c r="H225" s="84"/>
-      <c r="I225" s="85"/>
+      <c r="G225" s="70"/>
+      <c r="H225" s="70"/>
+      <c r="I225" s="71"/>
       <c r="J225" s="5" t="s">
         <v>12</v>
       </c>
@@ -7445,17 +7398,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B226" s="90"/>
-      <c r="C226" s="91"/>
-      <c r="D226" s="82"/>
-      <c r="E226" s="74"/>
-      <c r="F226" s="83" t="s">
+    <row r="226" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B226" s="112"/>
+      <c r="C226" s="113"/>
+      <c r="D226" s="116"/>
+      <c r="E226" s="75"/>
+      <c r="F226" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="G226" s="84"/>
-      <c r="H226" s="84"/>
-      <c r="I226" s="85"/>
+      <c r="G226" s="70"/>
+      <c r="H226" s="70"/>
+      <c r="I226" s="71"/>
       <c r="J226" s="5" t="s">
         <v>12</v>
       </c>
@@ -7466,17 +7419,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B227" s="90"/>
-      <c r="C227" s="91"/>
-      <c r="D227" s="82"/>
-      <c r="E227" s="74"/>
-      <c r="F227" s="83" t="s">
+    <row r="227" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B227" s="112"/>
+      <c r="C227" s="113"/>
+      <c r="D227" s="116"/>
+      <c r="E227" s="75"/>
+      <c r="F227" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="G227" s="84"/>
-      <c r="H227" s="84"/>
-      <c r="I227" s="85"/>
+      <c r="G227" s="70"/>
+      <c r="H227" s="70"/>
+      <c r="I227" s="71"/>
       <c r="J227" s="5" t="s">
         <v>12</v>
       </c>
@@ -7487,17 +7440,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B228" s="90"/>
-      <c r="C228" s="91"/>
-      <c r="D228" s="82"/>
-      <c r="E228" s="74"/>
-      <c r="F228" s="83" t="s">
+    <row r="228" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B228" s="112"/>
+      <c r="C228" s="113"/>
+      <c r="D228" s="116"/>
+      <c r="E228" s="75"/>
+      <c r="F228" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="G228" s="84"/>
-      <c r="H228" s="84"/>
-      <c r="I228" s="85"/>
+      <c r="G228" s="70"/>
+      <c r="H228" s="70"/>
+      <c r="I228" s="71"/>
       <c r="J228" s="5" t="s">
         <v>12</v>
       </c>
@@ -7508,17 +7461,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B229" s="90"/>
-      <c r="C229" s="91"/>
-      <c r="D229" s="82"/>
-      <c r="E229" s="74"/>
-      <c r="F229" s="83" t="s">
+    <row r="229" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B229" s="112"/>
+      <c r="C229" s="113"/>
+      <c r="D229" s="76"/>
+      <c r="E229" s="77"/>
+      <c r="F229" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="G229" s="84"/>
-      <c r="H229" s="84"/>
-      <c r="I229" s="85"/>
+      <c r="G229" s="70"/>
+      <c r="H229" s="70"/>
+      <c r="I229" s="71"/>
       <c r="J229" s="5" t="s">
         <v>12</v>
       </c>
@@ -7529,48 +7482,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B230" s="90"/>
-      <c r="C230" s="91"/>
-      <c r="D230" s="87"/>
-      <c r="E230" s="65"/>
-      <c r="F230" s="83" t="s">
+    <row r="230" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B230" s="112"/>
+      <c r="C230" s="113"/>
+      <c r="F230" s="116"/>
+      <c r="G230" s="116"/>
+      <c r="H230" s="116"/>
+      <c r="I230" s="116"/>
+    </row>
+    <row r="231" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B231" s="112"/>
+      <c r="C231" s="113"/>
+      <c r="D231" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="G230" s="84"/>
-      <c r="H230" s="84"/>
-      <c r="I230" s="85"/>
-      <c r="J230" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K230" s="20" t="s">
+      <c r="E231" s="73"/>
+      <c r="F231" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G231" s="70"/>
+      <c r="H231" s="70"/>
+      <c r="I231" s="70"/>
+      <c r="J231" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L230" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B231" s="90"/>
-      <c r="C231" s="91"/>
-      <c r="F231" s="82"/>
-      <c r="G231" s="82"/>
-      <c r="H231" s="82"/>
-      <c r="I231" s="82"/>
-    </row>
-    <row r="232" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B232" s="90"/>
-      <c r="C232" s="91"/>
-      <c r="D232" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="E232" s="63"/>
-      <c r="F232" s="84" t="s">
+      <c r="L231" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B232" s="112"/>
+      <c r="C232" s="113"/>
+      <c r="D232" s="116"/>
+      <c r="E232" s="75"/>
+      <c r="F232" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="G232" s="84"/>
-      <c r="H232" s="84"/>
-      <c r="I232" s="84"/>
+      <c r="G232" s="70"/>
+      <c r="H232" s="70"/>
+      <c r="I232" s="71"/>
       <c r="J232" s="5" t="s">
         <v>11</v>
       </c>
@@ -7581,74 +7534,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B233" s="90"/>
-      <c r="C233" s="91"/>
-      <c r="D233" s="82"/>
-      <c r="E233" s="74"/>
-      <c r="F233" s="84" t="s">
+    <row r="233" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B233" s="112"/>
+      <c r="C233" s="113"/>
+      <c r="D233" s="76"/>
+      <c r="E233" s="77"/>
+      <c r="F233" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="G233" s="84"/>
-      <c r="H233" s="84"/>
-      <c r="I233" s="85"/>
+      <c r="G233" s="70"/>
+      <c r="H233" s="70"/>
+      <c r="I233" s="70"/>
       <c r="J233" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K233" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L233" s="11">
+      <c r="L233" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B234" s="90"/>
-      <c r="C234" s="91"/>
-      <c r="D234" s="87"/>
-      <c r="E234" s="65"/>
-      <c r="F234" s="84" t="s">
+    <row r="234" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B234" s="112"/>
+      <c r="C234" s="113"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="21"/>
+      <c r="L234" s="16"/>
+    </row>
+    <row r="235" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B235" s="112"/>
+      <c r="C235" s="113"/>
+      <c r="D235" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E235" s="73"/>
+      <c r="F235" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="G234" s="84"/>
-      <c r="H234" s="84"/>
-      <c r="I234" s="84"/>
-      <c r="J234" s="5" t="s">
+      <c r="G235" s="70"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="71"/>
+      <c r="J235" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K234" s="20" t="s">
+      <c r="K235" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L234" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B235" s="90"/>
-      <c r="C235" s="91"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="4"/>
-      <c r="K235" s="21"/>
-      <c r="L235" s="16"/>
-    </row>
-    <row r="236" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B236" s="90"/>
-      <c r="C236" s="91"/>
-      <c r="D236" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E236" s="63"/>
-      <c r="F236" s="83" t="s">
+      <c r="L235" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B236" s="114"/>
+      <c r="C236" s="115"/>
+      <c r="D236" s="76"/>
+      <c r="E236" s="77"/>
+      <c r="F236" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="G236" s="84"/>
-      <c r="H236" s="84"/>
-      <c r="I236" s="85"/>
+      <c r="G236" s="70"/>
+      <c r="H236" s="70"/>
+      <c r="I236" s="71"/>
       <c r="J236" s="4" t="s">
         <v>11</v>
       </c>
@@ -7656,181 +7609,281 @@
         <v>5</v>
       </c>
       <c r="L236" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B237" s="92"/>
-      <c r="C237" s="93"/>
-      <c r="D237" s="87"/>
-      <c r="E237" s="65"/>
-      <c r="F237" s="83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B237" s="22"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="3"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="21"/>
+      <c r="L237" s="2"/>
+    </row>
+    <row r="238" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B238" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="G237" s="84"/>
-      <c r="H237" s="84"/>
-      <c r="I237" s="85"/>
-      <c r="J237" s="4" t="s">
+      <c r="C238" s="105"/>
+      <c r="D238" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="E238" s="73"/>
+      <c r="F238" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="G238" s="130"/>
+      <c r="H238" s="130"/>
+      <c r="I238" s="131"/>
+      <c r="J238" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K237" s="5" t="s">
+      <c r="K238" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L237" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="3"/>
-      <c r="J238" s="4"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="2"/>
-    </row>
-    <row r="239" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B239" s="103" t="s">
+      <c r="L238" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="C239" s="104"/>
-      <c r="D239" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E239" s="63"/>
-      <c r="F239" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="G239" s="95"/>
-      <c r="H239" s="95"/>
-      <c r="I239" s="96"/>
+      <c r="M238" s="82"/>
+    </row>
+    <row r="239" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B239" s="127"/>
+      <c r="C239" s="128"/>
+      <c r="D239" s="117"/>
+      <c r="E239" s="75"/>
+      <c r="F239" s="132"/>
+      <c r="G239" s="133"/>
+      <c r="H239" s="133"/>
+      <c r="I239" s="134"/>
       <c r="J239" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K239" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L239" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="M239" s="69"/>
-    </row>
-    <row r="240" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B240" s="105"/>
-      <c r="C240" s="106"/>
-      <c r="D240" s="73"/>
-      <c r="E240" s="74"/>
-      <c r="F240" s="97"/>
-      <c r="G240" s="98"/>
-      <c r="H240" s="98"/>
-      <c r="I240" s="99"/>
+      <c r="L239" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="M239" s="82"/>
+    </row>
+    <row r="240" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B240" s="106"/>
+      <c r="C240" s="107"/>
+      <c r="D240" s="90"/>
+      <c r="E240" s="77"/>
+      <c r="F240" s="135"/>
+      <c r="G240" s="136"/>
+      <c r="H240" s="136"/>
+      <c r="I240" s="137"/>
       <c r="J240" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K240" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="L240" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="M240" s="69"/>
-    </row>
-    <row r="241" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B241" s="107"/>
-      <c r="C241" s="108"/>
-      <c r="D241" s="64"/>
-      <c r="E241" s="65"/>
-      <c r="F241" s="100"/>
-      <c r="G241" s="101"/>
-      <c r="H241" s="101"/>
-      <c r="I241" s="102"/>
-      <c r="J241" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L241" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="M241" s="69"/>
-    </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I242" s="7"/>
-    </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D243" s="82"/>
-      <c r="E243" s="82"/>
-      <c r="F243" s="82"/>
-      <c r="G243" s="82"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
+      <c r="L240" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="M240" s="82"/>
+    </row>
+    <row r="241" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I241" s="7"/>
+    </row>
+    <row r="242" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D242" s="116"/>
+      <c r="E242" s="116"/>
+      <c r="F242" s="116"/>
+      <c r="G242" s="116"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="241">
+  <mergeCells count="240">
+    <mergeCell ref="F238:I240"/>
+    <mergeCell ref="D185:E186"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D102:E107"/>
+    <mergeCell ref="D90:E93"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="F192:I192"/>
+    <mergeCell ref="D149:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="D180:E181"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D142:E144"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="D98:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="F215:I215"/>
+    <mergeCell ref="L238:M238"/>
+    <mergeCell ref="L239:M239"/>
+    <mergeCell ref="L240:M240"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="F235:I235"/>
+    <mergeCell ref="F236:I236"/>
+    <mergeCell ref="D235:E236"/>
+    <mergeCell ref="B149:C236"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="F208:I208"/>
+    <mergeCell ref="F210:I210"/>
+    <mergeCell ref="F212:I212"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="F225:I225"/>
+    <mergeCell ref="F226:I226"/>
+    <mergeCell ref="F227:I227"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="D161:E162"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D238:E240"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="B238:C240"/>
+    <mergeCell ref="D170:E173"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="F224:I224"/>
+    <mergeCell ref="F223:I223"/>
+    <mergeCell ref="F231:I231"/>
+    <mergeCell ref="F232:I232"/>
+    <mergeCell ref="F233:I233"/>
+    <mergeCell ref="D231:E233"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="D175:E176"/>
+    <mergeCell ref="F176:I176"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="F194:I194"/>
+    <mergeCell ref="F218:I218"/>
+    <mergeCell ref="D222:E229"/>
+    <mergeCell ref="F222:I222"/>
+    <mergeCell ref="F198:I198"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="F181:I181"/>
+    <mergeCell ref="B113:C146"/>
+    <mergeCell ref="D135:E136"/>
+    <mergeCell ref="D71:E77"/>
+    <mergeCell ref="D138:E140"/>
+    <mergeCell ref="D132:E133"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="D188:E190"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="F162:I162"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="D203:E210"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="D212:E215"/>
+    <mergeCell ref="D217:E220"/>
+    <mergeCell ref="D158:E159"/>
+    <mergeCell ref="F205:I205"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F206:I206"/>
+    <mergeCell ref="F204:I204"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="F159:I159"/>
+    <mergeCell ref="F161:I161"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="D194:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="D152:E154"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="D128:E130"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="D116:E118"/>
+    <mergeCell ref="D113:E114"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="D124:E126"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="D120:E122"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F186:I186"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="D164:E165"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F164:I164"/>
+    <mergeCell ref="F165:I165"/>
     <mergeCell ref="F168:I168"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="D67:E70"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="D80:E89"/>
-    <mergeCell ref="D96:E97"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F126:I126"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="D56:E59"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="D49:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D22:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="D165:E166"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F165:I165"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="F169:I169"/>
-    <mergeCell ref="D168:E169"/>
+    <mergeCell ref="D167:E168"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C12:C14"/>
@@ -7838,187 +7891,65 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C112"/>
-    <mergeCell ref="D34:E42"/>
-    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B22:C111"/>
+    <mergeCell ref="D33:E41"/>
+    <mergeCell ref="F199:I199"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="D60:E61"/>
+    <mergeCell ref="D79:E88"/>
+    <mergeCell ref="D95:E96"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="D55:E58"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F167:I167"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="D66:E69"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D52:E53"/>
     <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F190:I190"/>
-    <mergeCell ref="D129:E131"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="D117:E119"/>
-    <mergeCell ref="D114:E115"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="D125:E127"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="D121:E123"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="D204:E211"/>
-    <mergeCell ref="F218:I218"/>
-    <mergeCell ref="F221:I221"/>
-    <mergeCell ref="D213:E216"/>
-    <mergeCell ref="D218:E221"/>
-    <mergeCell ref="D159:E160"/>
-    <mergeCell ref="F206:I206"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="F205:I205"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F162:I162"/>
-    <mergeCell ref="F191:I191"/>
-    <mergeCell ref="F214:I214"/>
-    <mergeCell ref="D195:E202"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="F198:I198"/>
-    <mergeCell ref="D153:E155"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B114:C147"/>
-    <mergeCell ref="D136:E137"/>
-    <mergeCell ref="D72:E78"/>
-    <mergeCell ref="D139:E141"/>
-    <mergeCell ref="D133:E134"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F194:I194"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="D189:E191"/>
-    <mergeCell ref="F192:I192"/>
-    <mergeCell ref="F186:I186"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="F147:I147"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="F154:I154"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="F181:I181"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="B239:C241"/>
-    <mergeCell ref="D171:E174"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="F220:I220"/>
-    <mergeCell ref="F225:I225"/>
-    <mergeCell ref="F224:I224"/>
-    <mergeCell ref="F232:I232"/>
-    <mergeCell ref="F233:I233"/>
-    <mergeCell ref="F234:I234"/>
-    <mergeCell ref="D232:E234"/>
-    <mergeCell ref="F176:I176"/>
-    <mergeCell ref="D176:E177"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="D223:E230"/>
-    <mergeCell ref="F223:I223"/>
-    <mergeCell ref="F199:I199"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="L239:M239"/>
-    <mergeCell ref="L240:M240"/>
-    <mergeCell ref="L241:M241"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="F236:I236"/>
-    <mergeCell ref="F237:I237"/>
-    <mergeCell ref="D236:E237"/>
-    <mergeCell ref="B150:C237"/>
-    <mergeCell ref="F210:I210"/>
-    <mergeCell ref="F231:I231"/>
-    <mergeCell ref="F209:I209"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="F204:I204"/>
-    <mergeCell ref="F215:I215"/>
-    <mergeCell ref="F208:I208"/>
-    <mergeCell ref="F226:I226"/>
-    <mergeCell ref="F227:I227"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="D162:E163"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D239:E241"/>
-    <mergeCell ref="F239:I241"/>
-    <mergeCell ref="D186:E187"/>
-    <mergeCell ref="F159:I159"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D103:E108"/>
-    <mergeCell ref="D91:E94"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="D150:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="D181:E182"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D143:E145"/>
-    <mergeCell ref="F143:I143"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D99:E101"/>
-    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D48:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D22:E30"/>
+    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K164:K170 K145:K146 K175 K178 K180 K183 K185" xr:uid="{2DC3D7B0-8CF4-4757-B488-D2E4D8070039}">
-      <formula1>$R$3:$R$24</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K163:K169 K184 K182 K179 K177 K174 K144:K145" xr:uid="{2DC3D7B0-8CF4-4757-B488-D2E4D8070039}">
+      <formula1>$R$3:$R$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J19 J22:J32 J34:J42 J239:J241 J61:J62 J64:J65 J67:J70 J72:J78 J80:J82 J223:J230 J114:J115 J117:J119 J121:J123 J125:J127 J133:J134 J136:J137 J129:J131 J204:J211 J213:J216 J218:J221 H243 J232:J237 J110:J112 J84:J89 J44 J159:J160 J96:J97 J139:J147 J103:J108 J56:J59 J150:J157 J195:J202 J91:J94 J193 J46 J99:J101 J189:J191 J48:J54 J162:J187 T164:T170" xr:uid="{10AFDF30-B450-4558-A03B-751D8CE345A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J19 J33:J41 J238:J240 J60:J61 J63:J64 J66:J69 J71:J77 J79:J81 J222:J229 J113:J114 J116:J118 J120:J122 J124:J126 J132:J133 J135:J136 J128:J130 J203:J210 J212:J215 J217:J220 H242 J231:J236 J109:J111 J83:J88 J43 J158:J159 J95:J96 J138:J146 J102:J107 J55:J58 J149:J156 J194:J201 J90:J93 J192 J45 J98:J100 J188:J190 J47:J53 J161:J186 T163:T169 J22:J31" xr:uid="{10AFDF30-B450-4558-A03B-751D8CE345A4}">
       <formula1>$G$5:$G$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K20 K133:K134 K22:K32 K34:K42 K239:K241 K61:K62 K218:K221 K67:K70 K80:K82 K84:K89 K213:K216 K184 K114:K115 K117:K119 K121:K123 K125:K127 K72:K78 K136:K137 K129:K131 K64:K65 K110:K112 K204:K211 K107:K108 I243 K171:K174 K223:K230 K232:K237 K44 K159:K160 K162:K163 K96:K97 K139:K144 K176:K177 K56:K59 K179 K150:K157 K195:K198 K91:K94 K200 K193 K186:K187 K181:K182 K46 K99:K101 K189:K191 K48:K54 K165:K166 K168:K169 U164:U170" xr:uid="{F4AEF98E-6084-491E-8EC0-63DF3FF33553}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K20 K132:K133 K33:K41 K238:K240 K60:K61 K217:K220 K66:K69 K79:K81 K83:K88 K212:K215 K183 K113:K114 K116:K118 K120:K122 K124:K126 K71:K77 K135:K136 K128:K130 K63:K64 K109:K111 K203:K210 K106:K107 I242 K170:K173 K222:K229 K231:K236 K43 K158:K159 K161:K162 K95:K96 K138:K143 K175:K176 K55:K58 K178 K149:K156 K194:K197 K90:K93 K199 K192 K185:K186 K180:K181 K45 K98:K100 K188:K190 K47:K53 K164:K165 K167:K168 U163:U169 K22:K31" xr:uid="{F4AEF98E-6084-491E-8EC0-63DF3FF33553}">
       <formula1>$D$5:$D$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -8028,21 +7959,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100570FC7A6FE754040A300FCF536A998F2" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c5a97bb2b6dbb6a611e39f323b1129d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d6ab10a-40de-49b8-bf57-e7445c3d9db3" xmlns:ns4="7cd07669-f7e4-4811-9af0-01eecff77126" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3533e4d802fbf510eca1d53d771954ae" ns3:_="" ns4:_="">
     <xsd:import namespace="1d6ab10a-40de-49b8-bf57-e7445c3d9db3"/>
@@ -8251,32 +8167,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145F01E7-EF9C-4603-AA2B-FF4DC3E55AD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1d6ab10a-40de-49b8-bf57-e7445c3d9db3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7cd07669-f7e4-4811-9af0-01eecff77126"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A663E6-5E8E-48FD-80F0-788C792A7346}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8293,4 +8199,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145F01E7-EF9C-4603-AA2B-FF4DC3E55AD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1d6ab10a-40de-49b8-bf57-e7445c3d9db3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7cd07669-f7e4-4811-9af0-01eecff77126"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>